--- a/src/files/EVA_Submission_template.V1.1.2_mockup.xlsx
+++ b/src/files/EVA_Submission_template.V1.1.2_mockup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pagarcia/appl/js/eva-web/src/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahm/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{239EF1B6-51F4-8540-89AA-3143B59618B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3314ED4-A559-D24D-91CB-6492AC3EF227}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="16300" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="16300" tabRatio="993" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLEASE READ FIRST" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="588">
   <si>
     <t>PLEASE READ FIRST</t>
   </si>
@@ -1783,42 +1783,18 @@
     <t>EMBL-EBI, Wellcome Genome Campus, Cambridge, CB10 1SA</t>
   </si>
   <si>
-    <t>EVA EXAMPLE: European Variation Archive</t>
-  </si>
-  <si>
-    <t>EVA to EVA</t>
-  </si>
-  <si>
-    <t>EVA EXAMPLE: European Variation Archive is an archive of all variation data from all species. It started in spring 2014 and is based at the EMBL-EBI in Cambridge UK. The project Coordinator is Justin Paschall from Center for Genomic Regulation, Barcelona.</t>
-  </si>
-  <si>
     <t>EBI</t>
   </si>
   <si>
-    <t>ENA:PRJEB3346</t>
-  </si>
-  <si>
     <t>DGVA:esv332, www.ebi.ac.uk/eva|EVA_website</t>
   </si>
   <si>
-    <t>Gary Saunders, EMBL-EBI; Dylan Spalding, EMBL-EBI; Justin Paschall, EMBL-EBI</t>
-  </si>
-  <si>
     <t>SAMEA2417918</t>
   </si>
   <si>
     <t>SAMEG171733</t>
   </si>
   <si>
-    <t>unique_1</t>
-  </si>
-  <si>
-    <t>Unique sample 1</t>
-  </si>
-  <si>
-    <t>This unique sample was derived from cell-line Mark_1 (available at www.samples.com/Mark1)</t>
-  </si>
-  <si>
     <t>Mark1</t>
   </si>
   <si>
@@ -1840,27 +1816,12 @@
     <t>Cell line from samples.com</t>
   </si>
   <si>
-    <t>This human cell line was derived from Human1</t>
-  </si>
-  <si>
-    <t>Human1</t>
-  </si>
-  <si>
-    <t>Unique Human Sample 1</t>
-  </si>
-  <si>
     <t>This sample was part of the MADEUPNAME study</t>
   </si>
   <si>
     <t>Blood cell</t>
   </si>
   <si>
-    <t>EVA_EXAMPLE_1</t>
-  </si>
-  <si>
-    <t>This is an analysis of all variants from unique sample SAMEA2417918 for the EVA EXAMPLE: European Variation Archive project</t>
-  </si>
-  <si>
     <t>GCA_000001405.14</t>
   </si>
   <si>
@@ -1873,12 +1834,6 @@
     <t>This is the desciption of our pipeline that was used to call the described variants. Often this section shall be copied from the materials and methods section of the referenced publication.</t>
   </si>
   <si>
-    <t>EVA_EXAMPLE_2</t>
-  </si>
-  <si>
-    <t>This is an analysis of all variants from a unique sample derived from a fibroblast cell line from Human1 for the EVA EXAMPLE: European Variation Archive project</t>
-  </si>
-  <si>
     <t>EVA_to_EVA_SAMEA2417918.vcf.gz</t>
   </si>
   <si>
@@ -1891,15 +1846,9 @@
     <t>7b5139870c56bb99a47691a28a917fc2</t>
   </si>
   <si>
-    <t>EVA_to_EVA_unique_1.vcf.gz</t>
-  </si>
-  <si>
     <t>6t6ga443sf90788129981ec2fee51ad</t>
   </si>
   <si>
-    <t>EVA_to_EVA_unique_1.vcf.gz.tbi</t>
-  </si>
-  <si>
     <t>34mm3m235ml3785l436n32n67nf4nv</t>
   </si>
   <si>
@@ -1916,13 +1865,82 @@
   </si>
   <si>
     <t>Illumina NextSeq 500</t>
+  </si>
+  <si>
+    <t>European Variation Archive example project</t>
+  </si>
+  <si>
+    <t>European Variation Archive is an archive of all variation data from all species. It started in spring 2014 and is based at the EMBL-EBI in Cambridge UK. The project Coordinator is Justin Paschall from Center for Genomic Regulation, Barcelona.</t>
+  </si>
+  <si>
+    <t>EVA_project</t>
+  </si>
+  <si>
+    <t>PRJEB3346</t>
+  </si>
+  <si>
+    <t>EMBL-EBI</t>
+  </si>
+  <si>
+    <t>PubMed:26673705</t>
+  </si>
+  <si>
+    <t>Gary Saunders(EMBL-EBI),Dylan Spalding(EMBL-EBI),Justin Paschall(EMBL-EBI)</t>
+  </si>
+  <si>
+    <t>HC_01</t>
+  </si>
+  <si>
+    <t>HC_02</t>
+  </si>
+  <si>
+    <t>Unique sample 2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Unique Human Sample</t>
+  </si>
+  <si>
+    <t>This human cell line was derived from H2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>This unique sample was derived from cell-line C1</t>
+  </si>
+  <si>
+    <t>Human cell line variation in HC_02</t>
+  </si>
+  <si>
+    <t>Human cell line variation in HC_01</t>
+  </si>
+  <si>
+    <t>HC_01_analysis</t>
+  </si>
+  <si>
+    <t>HC_02_analysis</t>
+  </si>
+  <si>
+    <t>EVA_to_EVA_HC_02.vcf.gz.tbi</t>
+  </si>
+  <si>
+    <t>EVA_to_EVA_HC_02.vcf.gz</t>
+  </si>
+  <si>
+    <t>This is an analysis of all variants from a unique sample derived from a fibroblast cell line from H1 for the European Variation Archive example project</t>
+  </si>
+  <si>
+    <t>This is an analysis of all variants from unique sample SAMEA2417918 for the European Variation Archive example project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2136,6 +2154,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2370,7 +2400,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2521,27 +2551,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2553,6 +2564,27 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2581,8 +2613,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3006,7 +3038,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3018,8 +3050,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3028,10 +3060,10 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="26">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
@@ -3040,8 +3072,8 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="19">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -3050,10 +3082,10 @@
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="19">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -3062,8 +3094,8 @@
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3084,10 +3116,10 @@
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="19">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -3096,8 +3128,8 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3106,10 +3138,10 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="19">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3118,8 +3150,8 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3128,10 +3160,10 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="29" customFormat="1" ht="20" thickBot="1">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="89" t="s">
         <v>521</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="89"/>
     </row>
     <row r="12" spans="1:8" s="29" customFormat="1" ht="19">
       <c r="A12" s="55" t="s">
@@ -3184,32 +3216,32 @@
     </row>
     <row r="18" spans="1:2" s="29" customFormat="1"/>
     <row r="19" spans="1:2" ht="19">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="90"/>
     </row>
     <row r="20" spans="1:2" ht="19">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="86" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="86"/>
     </row>
     <row r="21" spans="1:2" ht="19">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="86"/>
     </row>
     <row r="22" spans="1:2" ht="19">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="87"/>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1">
       <c r="A23" s="63" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B23" s="63"/>
     </row>
@@ -3272,12 +3304,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A8:B8"/>
@@ -3286,6 +3312,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3296,12 +3328,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
@@ -3322,59 +3354,59 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>582</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
         <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>582</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="C3" t="s">
         <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>583</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C4" t="s">
         <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>583</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="C5" t="s">
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -3417,20 +3449,20 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="79" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="78" t="s">
         <v>171</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -3448,7 +3480,7 @@
         <v>217</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="F3" s="49">
         <v>1</v>
@@ -3517,7 +3549,7 @@
         <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="E7" t="s">
         <v>185</v>
@@ -3534,7 +3566,7 @@
         <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="H8" t="s">
         <v>236</v>
@@ -3740,7 +3772,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -5233,10 +5265,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5246,7 +5278,7 @@
     <col min="3" max="3" width="54.5" customWidth="1"/>
     <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -5304,41 +5336,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" s="69" customFormat="1">
       <c r="A2" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" s="69">
+        <v>9606</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="J2" s="69" t="s">
         <v>538</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E2" s="12">
-        <v>9606</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69" t="s">
-        <v>541</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="69" t="s">
-        <v>542</v>
       </c>
       <c r="K2" s="70">
         <v>43748</v>
       </c>
       <c r="L2" s="69" t="s">
-        <v>543</v>
-      </c>
-      <c r="M2" s="69"/>
+        <v>571</v>
+      </c>
       <c r="O2" s="69" t="s">
         <v>529</v>
       </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3" s="100"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="F4" s="100"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="F5" s="100"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="F6" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6213,13 +6256,13 @@
   <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -6268,12 +6311,12 @@
   <sheetData>
     <row r="1" spans="1:50" s="12" customFormat="1">
       <c r="A1" s="50"/>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="96"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="30" t="s">
         <v>152</v>
       </c>
@@ -6320,64 +6363,64 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="35"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="89" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="97" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97" t="s">
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="89" t="s">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89" t="s">
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89" t="s">
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89" t="s">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
     </row>
     <row r="3" spans="1:50" ht="26">
       <c r="A3" s="36" t="s">
@@ -6520,17 +6563,17 @@
       </c>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2417918</v>
+      <c r="A4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" t="s">
+        <v>572</v>
       </c>
       <c r="C4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -6578,43 +6621,43 @@
       <c r="AX4" s="12"/>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>583</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="73" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="G5" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="H5" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="K5" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="L5">
         <v>9606</v>
       </c>
       <c r="M5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P5" t="s">
         <v>215</v>
       </c>
       <c r="Q5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="R5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Z5" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AA5" s="74">
         <v>41640</v>
@@ -6623,45 +6666,45 @@
         <v>276</v>
       </c>
       <c r="AQ5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:50">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>583</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="G6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H6" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="J6" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="L6">
         <v>9606</v>
       </c>
       <c r="M6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P6" t="s">
         <v>215</v>
       </c>
       <c r="Q6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="R6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Z6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AA6" s="74">
         <v>40909</v>
@@ -6670,42 +6713,42 @@
         <v>276</v>
       </c>
       <c r="AQ6" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:50">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>583</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="G7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="H7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="L7">
         <v>9606</v>
       </c>
       <c r="M7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P7" t="s">
         <v>215</v>
       </c>
       <c r="Q7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="R7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="Z7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AA7" s="74">
         <v>40179</v>
@@ -7031,16 +7074,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
@@ -7107,37 +7150,37 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>581</v>
+      </c>
+      <c r="B2" t="s">
+        <v>582</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="E2" t="s">
         <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="H2" t="s">
         <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="J2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="M2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N2" s="74">
         <v>42278</v>
@@ -7145,37 +7188,37 @@
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>580</v>
+      </c>
+      <c r="B3" t="s">
+        <v>583</v>
       </c>
       <c r="C3" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="E3" t="s">
         <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G3" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="H3" t="s">
         <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="J3" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="M3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N3" s="74">
         <v>42278</v>
